--- a/Music/Guitar/Barrish.xlsx
+++ b/Music/Guitar/Barrish.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcurrier\Dropbox (Personal)\me\ajar\Music\Guitar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="276" windowWidth="21060" windowHeight="9876" firstSheet="3" activeTab="7"/>
+    <workbookView minimized="1" xWindow="480" yWindow="270" windowWidth="21060" windowHeight="9870" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="Forms" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -173,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,7 +608,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -642,7 +669,12 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFEFECF4"/>
@@ -651,6 +683,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -711,15 +746,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>182880</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -728,11 +763,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -740,6 +778,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -752,15 +813,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -769,11 +830,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -781,6 +845,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -793,15 +880,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -810,11 +897,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -822,6 +912,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -834,15 +947,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -851,11 +964,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -863,6 +979,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -875,15 +1014,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>175260</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -892,11 +1031,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -904,6 +1046,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -916,15 +1081,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -933,11 +1098,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -945,6 +1113,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -957,15 +1148,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -974,11 +1165,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -986,6 +1180,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -998,15 +1215,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>175260</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1015,11 +1232,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1027,6 +1247,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1039,15 +1282,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1056,11 +1299,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1068,6 +1314,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1080,15 +1349,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1097,11 +1366,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1109,6 +1381,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1123,13 +1418,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1138,11 +1433,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1150,6 +1448,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1162,15 +1483,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1179,11 +1500,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1191,6 +1515,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1244,7 +1591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,9 +1624,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1312,6 +1676,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1495,12 +1876,12 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,12 +2127,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +2148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +2156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +2193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +2225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1973,7 +2354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
@@ -2159,7 +2540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +2894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2559,14 +2940,14 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3" style="14"/>
     <col min="3" max="4" width="3" style="17"/>
     <col min="5" max="16384" width="3" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
@@ -2585,7 +2966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -2663,7 +3044,7 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
@@ -2741,7 +3122,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -2819,7 +3200,7 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -2897,7 +3278,7 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -2975,7 +3356,7 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -3053,19 +3434,19 @@
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -3108,7 +3489,7 @@
       <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
@@ -3141,7 +3522,7 @@
       <c r="AP12" s="15"/>
       <c r="AQ12" s="15"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -3182,7 +3563,7 @@
       <c r="AP13" s="15"/>
       <c r="AQ13" s="15"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
@@ -3215,7 +3596,7 @@
       <c r="AP14" s="15"/>
       <c r="AQ14" s="15"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
@@ -3255,7 +3636,7 @@
       <c r="AP15" s="15"/>
       <c r="AQ15" s="15"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="C16" s="16"/>
       <c r="G16" s="16"/>
@@ -3287,7 +3668,7 @@
       <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -3330,7 +3711,7 @@
       <c r="AP17" s="15"/>
       <c r="AQ17" s="15"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="C18" s="16"/>
       <c r="G18" s="16"/>
@@ -3363,7 +3744,7 @@
       <c r="AP18" s="15"/>
       <c r="AQ18" s="15"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -3407,7 +3788,7 @@
       <c r="AP19" s="15"/>
       <c r="AQ19" s="15"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
@@ -3439,7 +3820,7 @@
       <c r="AP20" s="15"/>
       <c r="AQ20" s="15"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
@@ -3497,21 +3878,21 @@
       <selection activeCell="B2" sqref="B2:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="3" style="8" customWidth="1"/>
     <col min="3" max="12" width="3" style="8"/>
     <col min="13" max="14" width="3" style="8" customWidth="1"/>
     <col min="15" max="16384" width="3" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <v>3</v>
       </c>
@@ -3555,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>7</v>
       </c>
@@ -3599,7 +3980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -3643,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -3687,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>6</v>
       </c>
@@ -3733,7 +4114,7 @@
       <c r="Z6" s="9"/>
       <c r="AB6" s="9"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>3</v>
       </c>
@@ -3781,7 +4162,7 @@
       <c r="AE7" s="9"/>
       <c r="AH7" s="9"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -3790,7 +4171,7 @@
       <c r="AA8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3807,7 +4188,7 @@
       <c r="T9" s="9"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <f t="shared" ref="B10:B15" si="0">IF(N10&gt;0,N10,"")</f>
         <v>4</v>
@@ -3891,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3975,7 +4356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4059,7 +4440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4143,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4225,7 +4606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4307,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="str">
         <f>IF(LEN(B10),"X","")</f>
         <v>X</v>
@@ -4349,7 +4730,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="str">
         <f t="shared" ref="B18:K18" si="16">IF(LEN(B11),"X","")</f>
         <v>X</v>
@@ -4391,7 +4772,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="str">
         <f t="shared" ref="B19:K19" si="17">IF(LEN(B12),"X","")</f>
         <v/>
@@ -4435,7 +4816,7 @@
       <c r="T19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="str">
         <f t="shared" ref="B20:K20" si="18">IF(LEN(B13),"X","")</f>
         <v/>
@@ -4479,7 +4860,7 @@
       <c r="U20" s="9"/>
       <c r="W20" s="9"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="str">
         <f t="shared" ref="B21:K21" si="19">IF(LEN(B14),"X","")</f>
         <v/>
@@ -4523,7 +4904,7 @@
       <c r="T21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="str">
         <f t="shared" ref="B22:K22" si="20">IF(LEN(B15),"X","")</f>
         <v>X</v>
@@ -4567,32 +4948,32 @@
       <c r="T22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="T23" s="9"/>
       <c r="W23" s="9"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="T24" s="9"/>
       <c r="W24" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:K15">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>IF(B10=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>IF(B10=6,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>IF(B10=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>IF(B10=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>IF(B10=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>IF(B10=5,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4610,15 +4991,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>182880</xdr:colOff>
+                    <xdr:colOff>180975</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4632,15 +5013,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4654,15 +5035,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4676,15 +5057,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4698,15 +5079,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4720,15 +5101,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4742,15 +5123,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4764,15 +5145,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4786,15 +5167,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4808,15 +5189,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4832,13 +5213,13 @@
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4852,15 +5233,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4881,12 +5262,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>30</v>
       </c>
@@ -4897,7 +5278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -4929,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
@@ -4961,7 +5342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -4993,7 +5374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
@@ -5025,7 +5406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
@@ -5057,7 +5438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>25</v>
       </c>
@@ -5089,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>28</v>
       </c>
@@ -5100,7 +5481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
@@ -5132,7 +5513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
@@ -5164,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>1</v>
       </c>
@@ -5196,7 +5577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>1</v>
       </c>
@@ -5228,7 +5609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
@@ -5260,7 +5641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
@@ -5292,7 +5673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
@@ -5303,7 +5684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
@@ -5332,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>25</v>
       </c>
@@ -5361,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>1</v>
       </c>
@@ -5390,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>1</v>
       </c>
@@ -5419,7 +5800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>1</v>
       </c>
@@ -5448,7 +5829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>25</v>
       </c>
@@ -5477,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>26</v>
       </c>
@@ -5488,7 +5869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>1</v>
       </c>
@@ -5520,7 +5901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
@@ -5552,7 +5933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>1</v>
       </c>
@@ -5582,7 +5963,7 @@
       </c>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>1</v>
       </c>
@@ -5614,7 +5995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>1</v>
       </c>
@@ -5646,7 +6027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>1</v>
       </c>
@@ -5678,7 +6059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
         <v>27</v>
       </c>
@@ -5689,7 +6070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
         <v>1</v>
       </c>
@@ -5718,7 +6099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>1</v>
       </c>
@@ -5747,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>1</v>
       </c>
@@ -5776,7 +6157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
         <v>1</v>
       </c>
@@ -5805,7 +6186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
         <v>1</v>
       </c>
@@ -5834,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
         <v>1</v>
       </c>
@@ -5877,13 +6258,13 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="20" customWidth="1"/>
     <col min="2" max="16384" width="3" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>30</v>
       </c>
@@ -5897,7 +6278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -5925,7 +6306,7 @@
       </c>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
@@ -5953,7 +6334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
         <v>1</v>
@@ -5981,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
@@ -6011,7 +6392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
@@ -6041,7 +6422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>25</v>
       </c>
@@ -6069,7 +6450,7 @@
       </c>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>28</v>
       </c>
@@ -6080,7 +6461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
@@ -6110,7 +6491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
@@ -6138,7 +6519,7 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>1</v>
       </c>
@@ -6166,7 +6547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>1</v>
@@ -6194,7 +6575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
@@ -6224,7 +6605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
@@ -6254,7 +6635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
@@ -6265,7 +6646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
@@ -6291,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>25</v>
       </c>
@@ -6318,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>1</v>
       </c>
@@ -6343,7 +6724,7 @@
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>1</v>
       </c>
@@ -6368,7 +6749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
         <v>1</v>
@@ -6393,7 +6774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>25</v>
       </c>
@@ -6420,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>26</v>
       </c>
@@ -6431,7 +6812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="23" t="s">
         <v>1</v>
@@ -6459,7 +6840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
@@ -6489,7 +6870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>1</v>
       </c>
@@ -6517,7 +6898,7 @@
       </c>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>1</v>
       </c>
@@ -6545,7 +6926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>1</v>
       </c>
@@ -6573,7 +6954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="23" t="s">
         <v>1</v>
@@ -6600,7 +6981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
         <v>27</v>
       </c>
@@ -6611,7 +6992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
         <v>1</v>
       </c>
@@ -6636,7 +7017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="23" t="s">
         <v>7</v>
@@ -6661,7 +7042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>1</v>
       </c>
@@ -6688,7 +7069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
         <v>1</v>
       </c>
@@ -6715,7 +7096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
         <v>1</v>
       </c>
@@ -6740,7 +7121,7 @@
       </c>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
         <v>1</v>
       </c>
@@ -6779,12 +7160,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" s="39">
         <v>3</v>
       </c>
@@ -6833,7 +7214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="34">
         <v>7</v>
       </c>
@@ -6882,7 +7263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" s="39">
         <v>5</v>
       </c>
@@ -6935,7 +7316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -6988,7 +7369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="32">
         <v>6</v>
       </c>
@@ -7041,7 +7422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="32">
         <v>3</v>
       </c>
@@ -7093,7 +7474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>1</v>
       </c>
@@ -7199,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>7</v>
       </c>
@@ -7252,7 +7633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>1</v>
       </c>
@@ -7305,7 +7686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
         <v>1</v>
       </c>
@@ -7358,7 +7739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>1</v>
       </c>
@@ -7411,11 +7792,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>31</v>
       </c>
@@ -7482,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
         <v>1</v>
       </c>
@@ -7539,7 +7920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B18" s="36" t="s">
         <v>1</v>
       </c>
@@ -7596,7 +7977,7 @@
       </c>
       <c r="AF18" s="33"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
@@ -7653,7 +8034,7 @@
       </c>
       <c r="AF19" s="33"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B20" s="36" t="s">
         <v>1</v>
       </c>
@@ -7710,7 +8091,7 @@
       </c>
       <c r="AF20" s="33"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B21" s="36" t="s">
         <v>1</v>
       </c>
@@ -7767,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="36"/>
@@ -7786,7 +8167,7 @@
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +8236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
         <v>1</v>
       </c>
@@ -7912,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B25" s="36" t="s">
         <v>1</v>
       </c>
@@ -7964,7 +8345,7 @@
       </c>
       <c r="AF25" s="33"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>1</v>
       </c>
@@ -8016,7 +8397,7 @@
       </c>
       <c r="AF26" s="33"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
         <v>1</v>
       </c>
@@ -8068,7 +8449,7 @@
       </c>
       <c r="AF27" s="33"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
         <v>1</v>
       </c>
@@ -8120,7 +8501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>2</v>
       </c>
@@ -8186,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>1</v>
       </c>
@@ -8239,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" s="36" t="s">
         <v>1</v>
       </c>
@@ -8291,7 +8672,7 @@
       </c>
       <c r="AF32" s="33"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B33" s="36" t="s">
         <v>1</v>
       </c>
@@ -8343,7 +8724,7 @@
       </c>
       <c r="AF33" s="33"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B34" s="36" t="s">
         <v>1</v>
       </c>
@@ -8395,7 +8776,7 @@
       </c>
       <c r="AF34" s="33"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>1</v>
       </c>
@@ -8447,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>31</v>
       </c>
@@ -8484,7 +8865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -8496,7 +8877,7 @@
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -8534,7 +8915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>2</v>
       </c>
@@ -8584,12 +8965,12 @@
       <selection activeCell="B1" sqref="B1:X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
@@ -8645,7 +9026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="42">
         <v>7</v>
       </c>
@@ -8698,7 +9079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="42">
         <v>5</v>
       </c>
@@ -8751,7 +9132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="42">
         <v>2</v>
       </c>
@@ -8804,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="42">
         <v>6</v>
       </c>
@@ -8857,7 +9238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="42">
         <v>3</v>
       </c>
@@ -8910,7 +9291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>37</v>
       </c>
@@ -8966,7 +9347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -9019,7 +9400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
         <v>5</v>
       </c>
@@ -9073,7 +9454,7 @@
       </c>
       <c r="Y10" s="48"/>
     </row>
-    <row r="11" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>2</v>
       </c>
@@ -9127,7 +9508,7 @@
       </c>
       <c r="Y11" s="48"/>
     </row>
-    <row r="12" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>6</v>
       </c>
@@ -9181,7 +9562,7 @@
       </c>
       <c r="Y12" s="48"/>
     </row>
-    <row r="13" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>3</v>
       </c>
@@ -9234,7 +9615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -9290,7 +9671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="42">
         <v>7</v>
       </c>
@@ -9343,7 +9724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="42">
         <v>5</v>
       </c>
@@ -9396,7 +9777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="42">
         <v>2</v>
       </c>
@@ -9449,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="42">
         <v>6</v>
       </c>
@@ -9502,7 +9883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="42">
         <v>3</v>
       </c>
@@ -9555,7 +9936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -9580,7 +9961,7 @@
       <c r="W21" s="43"/>
       <c r="X21" s="43"/>
     </row>
-    <row r="22" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>35</v>
       </c>
@@ -9636,7 +10017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46">
         <v>7</v>
       </c>
@@ -9689,7 +10070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46">
         <v>5</v>
       </c>
@@ -9742,7 +10123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="46">
         <v>2</v>
       </c>
@@ -9795,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46">
         <v>6</v>
       </c>
@@ -9848,7 +10229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="46">
         <v>3</v>
       </c>
@@ -9901,8 +10282,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
@@ -9958,7 +10339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="42">
         <v>7</v>
       </c>
@@ -10011,7 +10392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" s="40">
         <v>5</v>
       </c>
@@ -10064,7 +10445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" s="42">
         <v>2</v>
       </c>
@@ -10117,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" s="42">
         <v>6</v>
       </c>
@@ -10170,7 +10551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" s="42">
         <v>3</v>
       </c>
@@ -10223,7 +10604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -10248,7 +10629,7 @@
       <c r="W35" s="43"/>
       <c r="X35" s="43"/>
     </row>
-    <row r="36" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>36</v>
       </c>
@@ -10304,7 +10685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="46">
         <v>7</v>
       </c>
@@ -10357,7 +10738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46">
         <v>5</v>
       </c>
@@ -10410,7 +10791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="46">
         <v>2</v>
       </c>
@@ -10463,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="46">
         <v>6</v>
       </c>
@@ -10516,7 +10897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="46">
         <v>3</v>
       </c>
@@ -10569,7 +10950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -10594,7 +10975,7 @@
       <c r="W42" s="43"/>
       <c r="X42" s="43"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>21</v>
       </c>
@@ -10650,7 +11031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" s="40">
         <v>7</v>
       </c>
@@ -10703,7 +11084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="40">
         <v>5</v>
       </c>
@@ -10756,7 +11137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" s="40">
         <v>2</v>
       </c>
@@ -10809,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" s="42">
         <v>6</v>
       </c>
@@ -10862,7 +11243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" s="42">
         <v>3</v>
       </c>
@@ -10915,7 +11296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
@@ -10940,7 +11321,7 @@
       <c r="W49" s="43"/>
       <c r="X49" s="43"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>32</v>
       </c>
@@ -10996,7 +11377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="42">
         <v>7</v>
       </c>
@@ -11049,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="42">
         <v>5</v>
       </c>
@@ -11102,7 +11483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" s="42">
         <v>2</v>
       </c>
@@ -11155,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="40">
         <v>6</v>
       </c>
@@ -11208,7 +11589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B55" s="42">
         <v>3</v>
       </c>
@@ -11261,12 +11642,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="42">
         <v>3</v>
       </c>
@@ -11320,7 +11701,7 @@
       </c>
       <c r="Y62" s="43"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="52">
         <v>7</v>
       </c>
@@ -11374,7 +11755,7 @@
       </c>
       <c r="Y63" s="43"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="42">
         <v>5</v>
       </c>
@@ -11428,7 +11809,7 @@
       </c>
       <c r="Y64" s="43"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="52">
         <v>2</v>
       </c>
@@ -11482,7 +11863,7 @@
       </c>
       <c r="Y65" s="43"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="42">
         <v>6</v>
       </c>
@@ -11536,7 +11917,7 @@
       </c>
       <c r="Y66" s="43"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="42">
         <v>3</v>
       </c>
@@ -11604,12 +11985,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="50" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3" style="50"/>
     <col min="7" max="7" width="3" style="50" customWidth="1"/>
     <col min="8" max="9" width="3" style="55"/>
@@ -11619,7 +12000,7 @@
     <col min="22" max="16384" width="3" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="51" t="s">
         <v>39</v>
@@ -11649,7 +12030,7 @@
       <c r="V2" s="51"/>
       <c r="X2" s="51"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
@@ -11681,7 +12062,7 @@
       <c r="V3" s="51"/>
       <c r="X3" s="51"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
@@ -11713,7 +12094,7 @@
       <c r="V4" s="51"/>
       <c r="X4" s="51"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
@@ -11743,7 +12124,7 @@
       <c r="V5" s="51"/>
       <c r="X5" s="51"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
@@ -11775,7 +12156,7 @@
       <c r="V6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51" t="s">
@@ -11803,7 +12184,7 @@
       <c r="V7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C8" s="50" t="s">
         <v>45</v>
       </c>
@@ -11813,7 +12194,7 @@
       <c r="J8" s="57"/>
       <c r="K8" s="42"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C9" s="50" t="s">
         <v>46</v>
       </c>
@@ -11828,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C10" s="50" t="s">
         <v>38</v>
       </c>
@@ -11843,7 +12224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K11" s="58">
         <v>7</v>
       </c>
@@ -11856,7 +12237,7 @@
       </c>
       <c r="O11" s="42"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L12" s="53">
         <v>5</v>
       </c>
@@ -11866,7 +12247,7 @@
       </c>
       <c r="O12" s="42"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L13" s="53">
         <v>2</v>
       </c>
@@ -11878,7 +12259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L14" s="53">
         <v>6</v>
       </c>
@@ -11891,7 +12272,7 @@
       </c>
       <c r="R14" s="42"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
@@ -11910,7 +12291,7 @@
       <c r="AB15" s="42"/>
       <c r="AC15" s="42"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
@@ -11941,7 +12322,7 @@
       <c r="AB16" s="42"/>
       <c r="AC16" s="42"/>
     </row>
-    <row r="17" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
@@ -11972,7 +12353,7 @@
       <c r="AB17" s="42"/>
       <c r="AC17" s="42"/>
     </row>
-    <row r="18" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
@@ -12001,7 +12382,7 @@
       <c r="AB18" s="42"/>
       <c r="AC18" s="42"/>
     </row>
-    <row r="19" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
@@ -12030,7 +12411,7 @@
       <c r="AB19" s="42"/>
       <c r="AC19" s="42"/>
     </row>
-    <row r="20" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
@@ -12060,7 +12441,7 @@
       <c r="AB20" s="42"/>
       <c r="AC20" s="42"/>
     </row>
-    <row r="21" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:29" x14ac:dyDescent="0.25">
       <c r="J21" s="42"/>
       <c r="L21" s="54">
         <v>6</v>
@@ -12074,10 +12455,10 @@
       </c>
       <c r="P21" s="42"/>
     </row>
-    <row r="22" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:29" x14ac:dyDescent="0.25">
       <c r="K22" s="42"/>
     </row>
-    <row r="23" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:29" x14ac:dyDescent="0.25">
       <c r="K23" s="42"/>
       <c r="L23" s="60">
         <v>6</v>
@@ -12091,7 +12472,7 @@
       </c>
       <c r="P23" s="42"/>
     </row>
-    <row r="24" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:29" x14ac:dyDescent="0.25">
       <c r="K24" s="42"/>
       <c r="L24" s="60">
         <v>3</v>
@@ -12105,7 +12486,7 @@
       </c>
       <c r="P24" s="42"/>
     </row>
-    <row r="25" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:29" x14ac:dyDescent="0.25">
       <c r="K25" s="42"/>
       <c r="L25" s="60">
         <v>1</v>
@@ -12117,7 +12498,7 @@
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
     </row>
-    <row r="26" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:29" x14ac:dyDescent="0.25">
       <c r="K26" s="42"/>
       <c r="L26" s="60">
         <v>5</v>
@@ -12129,7 +12510,7 @@
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
     </row>
-    <row r="27" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:29" x14ac:dyDescent="0.25">
       <c r="K27" s="42"/>
       <c r="L27" s="60">
         <v>2</v>
@@ -12143,7 +12524,7 @@
       </c>
       <c r="P27" s="42"/>
     </row>
-    <row r="28" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:29" x14ac:dyDescent="0.25">
       <c r="L28" s="60">
         <v>6</v>
       </c>
